--- a/pta-template-4vwo.xlsx
+++ b/pta-template-4vwo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F62A8970-213A-4C56-8A71-6E1E5FC01ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="11_654AFB152364559E98F57CE4F1F267E1284B43BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7E20CFD-7F6C-4454-BD93-58CF2263AAD8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -546,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -574,9 +574,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -592,10 +589,6 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,63 +604,77 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,7 +936,7 @@
   <dimension ref="A1:AO62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+      <selection activeCell="E15" sqref="E15:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -951,14 +958,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="36" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1038,13 +1045,13 @@
       </c>
     </row>
     <row r="2" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1112,13 +1119,13 @@
       <c r="AO2" s="2"/>
     </row>
     <row r="3" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1184,12 +1191,12 @@
       <c r="AO3" s="2"/>
     </row>
     <row r="4" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -1252,24 +1259,24 @@
       <c r="AO4" s="2"/>
     </row>
     <row r="5" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="37" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="47"/>
       <c r="K5" s="8" t="s">
         <v>12</v>
       </c>
@@ -1330,15 +1337,15 @@
       <c r="AO5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="39" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1"/>
@@ -1402,13 +1409,13 @@
       <c r="AO6" s="2"/>
     </row>
     <row r="7" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="10"/>
       <c r="G7" s="7" t="s">
         <v>10</v>
@@ -1474,41 +1481,41 @@
       <c r="AO7" s="2"/>
     </row>
     <row r="8" spans="1:41" ht="134.25" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="24" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="24" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="21" t="s">
         <v>24</v>
       </c>
       <c r="V8" s="1"/>
@@ -1568,10 +1575,10 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1629,44 +1636,44 @@
       <c r="AN9" s="2"/>
       <c r="AO9" s="2"/>
     </row>
-    <row r="10" spans="1:41" ht="14.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:41" ht="57.75">
+      <c r="A10" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="13" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="13" t="s">
+      <c r="N10" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="13" t="s">
+      <c r="O10" s="40" t="s">
         <v>39</v>
       </c>
       <c r="V10" s="1"/>
@@ -1710,23 +1717,23 @@
       <c r="AO10" s="2"/>
     </row>
     <row r="11" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="18"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
       <c r="V11" s="1"/>
       <c r="W11" s="2" t="s">
         <v>41</v>
@@ -1737,21 +1744,21 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="18"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
       <c r="V12" s="1"/>
       <c r="W12" s="2" t="s">
         <v>41</v>
@@ -1762,16 +1769,16 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
       <c r="E13" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1793,10 +1800,10 @@
       <c r="A14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="41"/>
       <c r="E14" s="1"/>
       <c r="F14" s="9" t="s">
         <v>19</v>
@@ -1821,19 +1828,19 @@
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:41" ht="12.75">
+    <row r="15" spans="1:41" ht="25.5">
       <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="54"/>
-      <c r="E15" s="19" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="41"/>
+      <c r="E15" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="43" t="s">
         <v>50</v>
       </c>
       <c r="H15" s="1"/>
@@ -1857,11 +1864,11 @@
       <c r="A16" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="54"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1883,11 +1890,11 @@
       <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="54"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="41"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1909,11 +1916,11 @@
       <c r="A18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="54"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1935,11 +1942,11 @@
       <c r="A19" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="54"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="41"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1958,15 +1965,15 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="54"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1985,15 +1992,15 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="54"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2003,7 +2010,7 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="22" t="s">
+      <c r="W21" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X21" s="2">
@@ -2012,15 +2019,15 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2030,7 +2037,7 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="22" t="s">
+      <c r="W22" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X22" s="2">
@@ -2055,7 +2062,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="V23" s="1"/>
-      <c r="W23" s="22" t="s">
+      <c r="W23" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X23" s="2">
@@ -2080,7 +2087,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="V24" s="1"/>
-      <c r="W24" s="22" t="s">
+      <c r="W24" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X24" s="2">
@@ -2198,8 +2205,8 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" hidden="1" customHeight="1">
@@ -2225,8 +2232,8 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" hidden="1" customHeight="1">
@@ -2266,8 +2273,8 @@
         <v>67</v>
       </c>
       <c r="V30" s="1"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" hidden="1" customHeight="1">
@@ -2285,7 +2292,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="23">
+      <c r="O31" s="20">
         <v>501</v>
       </c>
       <c r="P31" s="9" t="s">
@@ -2307,8 +2314,8 @@
         <v>70</v>
       </c>
       <c r="V31" s="1"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="1"/>
@@ -2325,7 +2332,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="23">
+      <c r="O32" s="20">
         <v>502</v>
       </c>
       <c r="P32" s="9" t="s">
@@ -2347,8 +2354,8 @@
         <v>74</v>
       </c>
       <c r="V32" s="1"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
     </row>
     <row r="33" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="1"/>
@@ -2365,7 +2372,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="23">
+      <c r="O33" s="20">
         <v>503</v>
       </c>
       <c r="P33" s="9" t="s">
@@ -2385,8 +2392,8 @@
         <v>76</v>
       </c>
       <c r="V33" s="1"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
     </row>
     <row r="34" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="1"/>
@@ -2403,7 +2410,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="23">
+      <c r="O34" s="20">
         <v>504</v>
       </c>
       <c r="P34" s="1"/>
@@ -2421,8 +2428,8 @@
         <v>78</v>
       </c>
       <c r="V34" s="1"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="1"/>
@@ -2439,7 +2446,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
-      <c r="O35" s="23">
+      <c r="O35" s="20">
         <v>505</v>
       </c>
       <c r="P35" s="1"/>
@@ -2457,8 +2464,8 @@
         <v>80</v>
       </c>
       <c r="V35" s="1"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="1"/>
@@ -2475,7 +2482,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
-      <c r="O36" s="23">
+      <c r="O36" s="20">
         <v>506</v>
       </c>
       <c r="P36" s="1"/>
@@ -2491,8 +2498,8 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" hidden="1" customHeight="1">
       <c r="A37" s="1"/>
@@ -2509,7 +2516,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="23">
+      <c r="O37" s="20">
         <v>507</v>
       </c>
       <c r="P37" s="1"/>
@@ -2523,11 +2530,11 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O38" s="23">
+      <c r="O38" s="20">
         <v>508</v>
       </c>
       <c r="P38" s="1"/>
@@ -2542,7 +2549,7 @@
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O39" s="23">
+      <c r="O39" s="20">
         <v>509</v>
       </c>
       <c r="P39" s="1"/>
@@ -2557,7 +2564,7 @@
       <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O40" s="23">
+      <c r="O40" s="20">
         <v>510</v>
       </c>
       <c r="P40" s="1"/>
@@ -2572,7 +2579,7 @@
       <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O41" s="23">
+      <c r="O41" s="20">
         <v>511</v>
       </c>
       <c r="P41" s="1"/>
@@ -2587,7 +2594,7 @@
       <c r="U41" s="1"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O42" s="23">
+      <c r="O42" s="20">
         <v>512</v>
       </c>
       <c r="P42" s="1"/>
@@ -2602,7 +2609,7 @@
       <c r="U42" s="1"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O43" s="23">
+      <c r="O43" s="20">
         <v>513</v>
       </c>
       <c r="P43" s="1"/>
@@ -2615,7 +2622,7 @@
       <c r="U43" s="1"/>
     </row>
     <row r="44" spans="1:24" ht="15.75" hidden="1" customHeight="1">
-      <c r="O44" s="23">
+      <c r="O44" s="20">
         <v>514</v>
       </c>
       <c r="P44" s="1"/>
@@ -2737,8 +2744,8 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
     </row>
     <row r="55" spans="15:24" ht="15.75" hidden="1" customHeight="1">
       <c r="O55" s="1"/>
@@ -2751,7 +2758,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="22" t="s">
+      <c r="W55" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X55" s="2">
@@ -2769,7 +2776,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="22" t="s">
+      <c r="W56" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X56" s="2">
@@ -2787,7 +2794,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="22" t="s">
+      <c r="W57" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X57" s="2">
@@ -2805,7 +2812,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="22" t="s">
+      <c r="W58" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X58" s="2">
@@ -2823,7 +2830,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="22" t="s">
+      <c r="W59" s="19" t="s">
         <v>54</v>
       </c>
       <c r="X59" s="2" t="s">
@@ -2870,23 +2877,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -2895,6 +2885,23 @@
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation allowBlank="1" sqref="E15:E22" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
